--- a/data/recorddata.xlsx
+++ b/data/recorddata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F085A9DD-0188-4706-B32E-E2385DB2131A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D45B33C-A169-4B3C-B232-2D7B36458A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="2295" windowWidth="20715" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>log</t>
   </si>
@@ -166,30 +166,6 @@
   </si>
   <si>
     <t>DATE21</t>
-  </si>
-  <si>
-    <t>Rework Instructions (DEMO)</t>
-  </si>
-  <si>
-    <t>Ryan_AGX-00005-1-0000</t>
-  </si>
-  <si>
-    <t>Developmental Testing</t>
-  </si>
-  <si>
-    <t>Nolan</t>
-  </si>
-  <si>
-    <t>Remove R1</t>
-  </si>
-  <si>
-    <t>NM.03AUG2024</t>
-  </si>
-  <si>
-    <t>Add jumper Wire</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -540,10 +516,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:AZ1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV1" sqref="A1:AV1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,166 +701,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" t="s">
-        <v>57</v>
-      </c>
-      <c r="X2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV2">
-        <v>20240803081453</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Tf3o3vTAoad3HPguy4Bf4alk0jjt3BGpQWzD4zTXywoB1wAqhQBw+LN9opSWU1qq5bx/Ip/FIwOkvgEtjSlTXg==" saltValue="tJSLH+16CFbeyoyMG0WibA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="k37WDklFM1oTlfyow2QOvWoQtLtdt8jKOL2i/94O51yhcPrPAgm0DU4UZF0ngNKIdh/usW+JqiKR11Ut7/53aQ==" saltValue="Tc2gbnE6WcO45iM7s4PyOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/recorddata.xlsx
+++ b/data/recorddata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D45B33C-A169-4B3C-B232-2D7B36458A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA068B4-1CDE-46C9-939E-DF61BB221AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6495" yWindow="2295" windowWidth="20715" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
   <si>
     <t>log</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>DATE21</t>
+  </si>
+  <si>
+    <t>Hello World</t>
+  </si>
+  <si>
+    <t>NM_13AUG2024-01</t>
+  </si>
+  <si>
+    <t>Click or tap here to enter text.</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -516,7 +528,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AZ1"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -701,8 +713,166 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV2">
+        <v>20240813180917</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k37WDklFM1oTlfyow2QOvWoQtLtdt8jKOL2i/94O51yhcPrPAgm0DU4UZF0ngNKIdh/usW+JqiKR11Ut7/53aQ==" saltValue="Tc2gbnE6WcO45iM7s4PyOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7iHhsf7WbXUusWNrkBtElqRH7IQgbsXUzaos5rAdiNJKZay9MJCFcLTHBFmmPponuJ5hGZZ5SZaCc2zuXpWv6w==" saltValue="PuwI+5GxCg06fSBTVToYrA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
